--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-944097.6814263087</v>
+        <v>-912522.0614243823</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16775128.44796223</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9857603.744875597</v>
+        <v>9889494.224509988</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>17.71572653106003</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.84743711681679</v>
       </c>
       <c r="W2" t="n">
-        <v>83.40615418692042</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>2.974733806084732</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>109.4731500843522</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>381.4032451982005</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>276.2688073671885</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>12.95827676142962</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.9986524434719</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,22 +1136,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>315.796893443806</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>196.9106810544757</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251537</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.0845840832648</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>150.572459673245</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>377.5052731108505</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>165.6137642219406</v>
       </c>
       <c r="V13" t="n">
-        <v>243.9266518126929</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790408</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128705005</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946039</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>103.3456594571877</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1850,10 +1850,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904437</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.5532963163065</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800601</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>191.2725799529069</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522566</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,10 +3241,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>172.6623007436915</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432389</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934439</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.2202128354713</v>
+        <v>2075.583230496374</v>
       </c>
       <c r="C2" t="n">
-        <v>518.6385385727397</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2516.866086840702</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.867562360607</v>
+        <v>2516.866086840702</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.765502980322</v>
+        <v>2097.723623420013</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.519783320379</v>
+        <v>2093.477903760071</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.0483325980567</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="C4" t="n">
-        <v>512.4866210812817</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6086282828044</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>176.8506245335416</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>176.8506245335416</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>176.8506245335416</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>36.94845022391615</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2538.064065657656</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2292.184619236111</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>2013.751618489217</v>
       </c>
       <c r="V4" t="n">
-        <v>1429.886162364244</v>
+        <v>1726.796110359647</v>
       </c>
       <c r="W4" t="n">
-        <v>1157.859757950536</v>
+        <v>1454.769705945939</v>
       </c>
       <c r="X4" t="n">
-        <v>912.4680032839485</v>
+        <v>1209.377951279351</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0483325980567</v>
+        <v>981.9582805934592</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804.4522061243824</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C5" t="n">
-        <v>770.3501373482097</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>738.4807565630583</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E5" t="n">
-        <v>708.7464157617576</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1250.914606198081</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>846.059151609114</v>
+        <v>1828.060021424322</v>
       </c>
       <c r="X5" t="n">
-        <v>830.9570922288287</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y5" t="n">
-        <v>826.7113725688862</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.03283704749686</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>466.2711264523757</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>238.851455766484</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1055.383480344413</v>
+        <v>1557.262375348432</v>
       </c>
       <c r="C8" t="n">
-        <v>1021.28141156824</v>
+        <v>1523.160306572259</v>
       </c>
       <c r="D8" t="n">
-        <v>989.4120307830885</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>959.6776899817878</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>531.8102603909956</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>332.9105825581919</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>43.78042800140818</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854818</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.6183260814661</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6183260814661</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>478.6183260814661</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>478.6183260814661</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>478.6183260814661</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1015.24335410975</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646068</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674352</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427409</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2084.530057611246</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1864.462830484284</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1864.462830484284</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1501.845880418111</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1501.030829869548</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1081.888366448859</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1077.642646788916</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.535383619841</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564833</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030365</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299902</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461518</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233571</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854818</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900578</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.9856367552181</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647835018</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984734</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984734</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984734</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984734</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984734</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815035</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203834</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8392846996041</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>787.0725205169945</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>614.5108090002194</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>448.6328162017421</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>448.6328162017421</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>271.9257621634983</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>271.9257621634983</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0235878538728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854818</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>129.9433237932381</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.7017783643736</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>790.5542102093088</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>790.5542102093088</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1232.813013366953</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1652.482262592735</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1999.989156563077</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427409</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427409</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2168.181931427409</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1922.302485005864</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1643.869484258969</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1643.869484258969</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1371.843079845261</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.451325178673</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>978.8911392359817</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1777.353580373576</v>
+        <v>1615.561561275083</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.353580373576</v>
+        <v>1177.419088458506</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.44379554802</v>
+        <v>741.5093036329504</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.350401938682</v>
+        <v>741.5093036329504</v>
       </c>
       <c r="F11" t="n">
-        <v>761.48297234789</v>
+        <v>741.5093036329504</v>
       </c>
       <c r="G11" t="n">
-        <v>360.085140971154</v>
+        <v>360.1908459452226</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437025</v>
+        <v>71.06069138843887</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151026</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944281</v>
+        <v>505.8985894684968</v>
       </c>
       <c r="K11" t="n">
-        <v>1340.143176452606</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="L11" t="n">
-        <v>1982.947126530465</v>
+        <v>2214.467168869463</v>
       </c>
       <c r="M11" t="n">
-        <v>1982.947126530465</v>
+        <v>2214.467168869463</v>
       </c>
       <c r="N11" t="n">
-        <v>1982.947126530465</v>
+        <v>2816.542250067292</v>
       </c>
       <c r="O11" t="n">
-        <v>1982.947126530465</v>
+        <v>2816.542250067292</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.257001363861</v>
+        <v>2816.542250067292</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322456</v>
+        <v>3363.041036025887</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075513</v>
+        <v>3532.195100778944</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.25797825935</v>
+        <v>3448.543226962781</v>
       </c>
       <c r="T11" t="n">
-        <v>3223.190751132388</v>
+        <v>3228.475999835819</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.968448449406</v>
+        <v>3228.475999835819</v>
       </c>
       <c r="V11" t="n">
-        <v>2601.351498383232</v>
+        <v>2865.859049769646</v>
       </c>
       <c r="W11" t="n">
-        <v>2196.496043794265</v>
+        <v>2461.003595180679</v>
       </c>
       <c r="X11" t="n">
-        <v>1777.353580373576</v>
+        <v>2041.86113175999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1777.353580373576</v>
+        <v>2041.86113175999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.709942032803</v>
+        <v>576.8156470068717</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694454</v>
+        <v>470.359185843514</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159986</v>
+        <v>375.2688969900672</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429523</v>
+        <v>281.1484823170209</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591139</v>
+        <v>197.7646439331825</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252978</v>
+        <v>112.3795541993664</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151026</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196786</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681802</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="K12" t="n">
-        <v>421.1601951681802</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="L12" t="n">
-        <v>796.8820139467812</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="M12" t="n">
-        <v>796.8820139467812</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="N12" t="n">
-        <v>796.8820139467812</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="O12" t="n">
-        <v>796.8820139467812</v>
+        <v>395.2022269817912</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.605180425979</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.428225942771</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.913035273341</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>979.4727630685341</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333454</v>
+        <v>824.6053273074141</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125662</v>
+        <v>698.1195480866348</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>979.8383539041286</v>
+        <v>891.2841096528729</v>
       </c>
       <c r="C13" t="n">
-        <v>807.2766423873535</v>
+        <v>718.7223981360978</v>
       </c>
       <c r="D13" t="n">
-        <v>641.3986495888762</v>
+        <v>552.8444053376205</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888762</v>
+        <v>552.8444053376205</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506324</v>
+        <v>376.1373512993767</v>
       </c>
       <c r="G13" t="n">
-        <v>299.10032057646</v>
+        <v>210.5460763252044</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668346</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151026</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062001</v>
+        <v>157.2235871802687</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773357</v>
+        <v>431.9820417514043</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452968</v>
+        <v>850.1919235193653</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="S13" t="n">
-        <v>2687.19780694431</v>
+        <v>2528.062143216375</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.318360522765</v>
+        <v>2282.18269679483</v>
       </c>
       <c r="U13" t="n">
-        <v>2162.88535977587</v>
+        <v>2114.896066267617</v>
       </c>
       <c r="V13" t="n">
-        <v>1916.494802389312</v>
+        <v>1827.940558138048</v>
       </c>
       <c r="W13" t="n">
-        <v>1644.468397975603</v>
+        <v>1555.914153724339</v>
       </c>
       <c r="X13" t="n">
-        <v>1399.076643309016</v>
+        <v>1310.522399057752</v>
       </c>
       <c r="Y13" t="n">
-        <v>1171.656972623116</v>
+        <v>1083.10272837186</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5279,49 +5279,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2627364873778</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L14" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M14" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O14" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477188</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309438</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
         <v>614.3171730324584</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.995166752598</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066706</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,49 +5516,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E19" t="n">
         <v>444.5591692831957</v>
@@ -5707,16 +5707,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>845.9697221592259</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>673.4080106424508</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1037.788340878213</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130896</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709351</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832887</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6409,16 +6409,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674088</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E34" t="n">
-        <v>673.121292818146</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954128</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601649</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>540.3167323207291</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1615.376698573589</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2772.424533784139</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3898.155517220586</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1405.586141896919</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7160,43 +7160,43 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M38" t="n">
-        <v>3599.279484550324</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="N38" t="n">
-        <v>3599.279484550324</v>
+        <v>3132.707945323302</v>
       </c>
       <c r="O38" t="n">
-        <v>3599.279484550324</v>
+        <v>4112.887611893609</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882662</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7366,7 +7366,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7448,7 +7448,7 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,13 +7603,13 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7646,22 +7646,22 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645009</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.132825422679</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="P44" t="n">
         <v>4162.68233307924</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7840,7 +7840,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>542.0454828568522</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>451.6762470063825</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568522</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568522</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568522</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>389.7499311565003</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>649.2969192705646</v>
+        <v>883.048775194736</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>608.1566476745747</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>379.5169886652536</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>459.5978749662608</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -9164,28 +9164,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.9071053991111</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>447.2222511564761</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>569.0937863928461</v>
+        <v>773.1793655528109</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>569.0937863928452</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.320848248998655</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>278.8645377200428</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>19.87857995211823</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="V13" t="n">
-        <v>40.15930123558093</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.592177662734</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>33.87289402612589</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627268</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>102.9863699957342</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>848285.3958096289</v>
+        <v>860134.4405021212</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>848285.3958096289</v>
+        <v>860756.8978672962</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>854323.2159920477</v>
+        <v>860756.8978672962</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668226.7072901814</v>
+        <v>668901.2216857672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870652.1817080124</v>
+        <v>870652.1817080125</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870652.1817080126</v>
+        <v>870652.1817080125</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882507.2849972075</v>
+        <v>884819.0287314232</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120633.1469753419</v>
+        <v>120541.3090034308</v>
       </c>
       <c r="C2" t="n">
         <v>120633.1469753419</v>
@@ -26320,13 +26320,13 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>90981.87670404548</v>
+        <v>91073.71467595646</v>
       </c>
       <c r="F2" t="n">
         <v>118542.9564309042</v>
       </c>
       <c r="G2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="H2" t="n">
         <v>118542.9564309043</v>
@@ -26350,7 +26350,7 @@
         <v>120633.1469753418</v>
       </c>
       <c r="O2" t="n">
-        <v>120633.1469753418</v>
+        <v>120633.1469753419</v>
       </c>
       <c r="P2" t="n">
         <v>120633.1469753418</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835398</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728174</v>
+        <v>64353.58184153317</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238704</v>
+        <v>113238.4356313706</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610285</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515972</v>
+        <v>66700.3956971225</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769074</v>
+        <v>82426.51302796675</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>156403.6719608791</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>178918.2218082749</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.62636720396</v>
+        <v>52243.30808198028</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933271</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933268</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
@@ -26445,19 +26445,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213679</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="O4" t="n">
+        <v>81349.2499521368</v>
+      </c>
+      <c r="P4" t="n">
         <v>81349.24995213677</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81349.24995213679</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769661</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154779</v>
+        <v>53689.36553183995</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,10 +26500,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280811.7680681059</v>
+        <v>-333775.606525161</v>
       </c>
       <c r="C6" t="n">
-        <v>-138620.467408396</v>
+        <v>-110216.0188390896</v>
       </c>
       <c r="D6" t="n">
-        <v>-161445.6063089835</v>
+        <v>-110216.0188390896</v>
       </c>
       <c r="E6" t="n">
-        <v>-116239.3456875236</v>
+        <v>-79540.97891605677</v>
       </c>
       <c r="F6" t="n">
-        <v>-140793.0063880915</v>
+        <v>-140437.6404349743</v>
       </c>
       <c r="G6" t="n">
-        <v>-27175.98046422098</v>
+        <v>-27199.20480360369</v>
       </c>
       <c r="H6" t="n">
-        <v>-27175.98046422099</v>
+        <v>-27199.20480360369</v>
       </c>
       <c r="I6" t="n">
-        <v>-27175.98046422105</v>
+        <v>-27199.20480360369</v>
       </c>
       <c r="J6" t="n">
-        <v>-138190.4458092112</v>
+        <v>-201850.5535213098</v>
       </c>
       <c r="K6" t="n">
-        <v>-27175.98046422105</v>
+        <v>-27199.2048036037</v>
       </c>
       <c r="L6" t="n">
-        <v>-56977.35089032388</v>
+        <v>-27199.20480360369</v>
       </c>
       <c r="M6" t="n">
-        <v>-119247.9239580444</v>
+        <v>-98493.4633660074</v>
       </c>
       <c r="N6" t="n">
-        <v>-133353.3656805754</v>
+        <v>-118658.2307308514</v>
       </c>
       <c r="O6" t="n">
-        <v>-36231.71770288465</v>
+        <v>-36231.71770288461</v>
       </c>
       <c r="P6" t="n">
         <v>-36231.71770288465</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874737</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568522</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188782</v>
+        <v>883.048775194736</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367478</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.681980162026</v>
+        <v>215.533568586879</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658671</v>
+        <v>395.2117281900091</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367478</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250037</v>
+        <v>215.533568586879</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658671</v>
+        <v>336.5350207529866</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367478</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.681980162026</v>
+        <v>215.533568586879</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658671</v>
+        <v>395.2117281900091</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>290.143343448695</v>
       </c>
       <c r="W2" t="n">
-        <v>317.4007458561566</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.79861592698668</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>48.17580493063112</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>42.18551009668386</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>124.5380926758885</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>157.8778176401777</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>115.7537935334939</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4731720084931</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.06088989576796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30526,7 +30526,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="42">
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>542.0454828568522</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>451.6762470063825</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568522</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568522</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568522</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,10 +35334,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>389.7499311565003</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,19 +35413,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>649.2969192705646</v>
+        <v>883.048775194736</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>608.1566476745747</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>379.5169886652536</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>459.5978749662608</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35884,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.9071053991111</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>447.2222511564761</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>569.0937863928461</v>
+        <v>773.1793655528109</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,16 +38023,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>569.0937863928452</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
